--- a/hello.xlsx
+++ b/hello.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Reemma" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -38,7 +38,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Reemma</t>
+    <t>Simple chart</t>
   </si>
 </sst>
 </file>
@@ -98,6 +98,178 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,18 +626,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hello.xlsx
+++ b/hello.xlsx
@@ -49,7 +49,7 @@
     <numFmt numFmtId="164" formatCode="mmmm d yyyy"/>
     <numFmt numFmtId="165" formatCode="$#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +65,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF121C44"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5FFD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C91E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF05D5E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FD356"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,15 +121,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +672,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3">
@@ -633,62 +694,62 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>2</v>
       </c>
     </row>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Reemma" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -39,6 +40,45 @@
   </si>
   <si>
     <t>Simple chart</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -333,6 +373,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="reemma.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="2057400" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -757,4 +840,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>